--- a/file/TGT-411-Hotel.xlsx
+++ b/file/TGT-411-Hotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E1A447-E9AC-DD4D-9980-34C97671790A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA1F06-9C70-A24B-9E40-8F12D065D437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17040" yWindow="3960" windowWidth="26820" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">台北諾富特華航桃園機場飯店 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,7 +622,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -684,28 +680,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
+      <c r="E2" s="5">
+        <v>4.5</v>
       </c>
       <c r="F2" s="6">
         <v>3429</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
@@ -716,10 +712,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -728,16 +724,16 @@
         <v>3124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32">
@@ -748,10 +744,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -760,16 +756,16 @@
         <v>2944</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16">
@@ -780,10 +776,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>4.5</v>
@@ -792,16 +788,16 @@
         <v>2574</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32">
@@ -812,10 +808,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -824,16 +820,16 @@
         <v>2267</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16">
@@ -844,10 +840,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -856,16 +852,16 @@
         <v>1559</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
